--- a/data/134/DEUSTATIS/old/Unemployment as a percentage of the civilian labour force.xlsx
+++ b/data/134/DEUSTATIS/old/Unemployment as a percentage of the civilian labour force.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="61">
   <si>
     <t>Unemployment as a percentage of the civilian labour force:
 Germany / Former territory of the Federal Republic / New
@@ -198,7 +198,7 @@
     <t>(Code: 13211).</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:37:35</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:35:44</t>
   </si>
 </sst>
 </file>
@@ -7898,11 +7898,11 @@
       <c r="GV8" t="n" s="10">
         <v>5.4</v>
       </c>
-      <c r="GW8" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX8" t="s" s="10">
-        <v>38</v>
+      <c r="GW8" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="GX8" t="n" s="10">
+        <v>5.1</v>
       </c>
       <c r="GY8" t="s" s="10">
         <v>38</v>
@@ -8523,11 +8523,11 @@
       <c r="GV10" t="n" s="10">
         <v>5.5</v>
       </c>
-      <c r="GW10" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX10" t="s" s="10">
-        <v>38</v>
+      <c r="GW10" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="GX10" t="n" s="10">
+        <v>5.2</v>
       </c>
       <c r="GY10" t="s" s="10">
         <v>38</v>
@@ -9143,11 +9143,11 @@
       <c r="GV11" t="n" s="10">
         <v>5.2</v>
       </c>
-      <c r="GW11" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX11" t="s" s="10">
-        <v>38</v>
+      <c r="GW11" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="GX11" t="n" s="10">
+        <v>4.9</v>
       </c>
       <c r="GY11" t="s" s="10">
         <v>38</v>
@@ -9763,11 +9763,11 @@
       <c r="GV12" t="n" s="10">
         <v>3.7</v>
       </c>
-      <c r="GW12" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX12" t="s" s="10">
-        <v>38</v>
+      <c r="GW12" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="GX12" t="n" s="10">
+        <v>3.2</v>
       </c>
       <c r="GY12" t="s" s="10">
         <v>38</v>
@@ -10383,11 +10383,11 @@
       <c r="GV13" t="n" s="10">
         <v>4.7</v>
       </c>
-      <c r="GW13" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX13" t="s" s="10">
-        <v>38</v>
+      <c r="GW13" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="GX13" t="n" s="10">
+        <v>4.0</v>
       </c>
       <c r="GY13" t="s" s="10">
         <v>38</v>
@@ -11003,11 +11003,11 @@
       <c r="GV14" t="n" s="10">
         <v>5.8</v>
       </c>
-      <c r="GW14" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX14" t="s" s="10">
-        <v>38</v>
+      <c r="GW14" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="GX14" t="n" s="10">
+        <v>5.6</v>
       </c>
       <c r="GY14" t="s" s="10">
         <v>38</v>
@@ -11624,10 +11624,10 @@
         <v>43</v>
       </c>
       <c r="GW15" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GX15" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GY15" t="s" s="10">
         <v>38</v>
@@ -12244,10 +12244,10 @@
         <v>43</v>
       </c>
       <c r="GW16" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GX16" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GY16" t="s" s="10">
         <v>38</v>
@@ -12863,11 +12863,11 @@
       <c r="GV17" t="n" s="10">
         <v>12.8</v>
       </c>
-      <c r="GW17" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX17" t="s" s="10">
-        <v>38</v>
+      <c r="GW17" t="n" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="GX17" t="n" s="10">
+        <v>12.0</v>
       </c>
       <c r="GY17" t="s" s="10">
         <v>38</v>
@@ -13491,11 +13491,11 @@
       <c r="GV19" t="n" s="10">
         <v>5.1</v>
       </c>
-      <c r="GW19" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX19" t="s" s="10">
-        <v>38</v>
+      <c r="GW19" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="GX19" t="n" s="10">
+        <v>4.8</v>
       </c>
       <c r="GY19" t="s" s="10">
         <v>38</v>
@@ -14116,11 +14116,11 @@
       <c r="GV21" t="n" s="10">
         <v>5.2</v>
       </c>
-      <c r="GW21" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX21" t="s" s="10">
-        <v>38</v>
+      <c r="GW21" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="GX21" t="n" s="10">
+        <v>4.9</v>
       </c>
       <c r="GY21" t="s" s="10">
         <v>38</v>
@@ -14736,11 +14736,11 @@
       <c r="GV22" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="GW22" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX22" t="s" s="10">
-        <v>38</v>
+      <c r="GW22" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="GX22" t="n" s="10">
+        <v>4.6</v>
       </c>
       <c r="GY22" t="s" s="10">
         <v>38</v>
@@ -15356,11 +15356,11 @@
       <c r="GV23" t="n" s="10">
         <v>3.3</v>
       </c>
-      <c r="GW23" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX23" t="s" s="10">
-        <v>38</v>
+      <c r="GW23" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="GX23" t="n" s="10">
+        <v>2.8</v>
       </c>
       <c r="GY23" t="s" s="10">
         <v>38</v>
@@ -15976,11 +15976,11 @@
       <c r="GV24" t="n" s="10">
         <v>4.3</v>
       </c>
-      <c r="GW24" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX24" t="s" s="10">
-        <v>38</v>
+      <c r="GW24" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="GX24" t="n" s="10">
+        <v>3.6</v>
       </c>
       <c r="GY24" t="s" s="10">
         <v>38</v>
@@ -16596,11 +16596,11 @@
       <c r="GV25" t="n" s="10">
         <v>5.5</v>
       </c>
-      <c r="GW25" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX25" t="s" s="10">
-        <v>38</v>
+      <c r="GW25" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="GX25" t="n" s="10">
+        <v>5.3</v>
       </c>
       <c r="GY25" t="s" s="10">
         <v>38</v>
@@ -17217,10 +17217,10 @@
         <v>43</v>
       </c>
       <c r="GW26" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GX26" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GY26" t="s" s="10">
         <v>38</v>
@@ -17837,10 +17837,10 @@
         <v>43</v>
       </c>
       <c r="GW27" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GX27" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GY27" t="s" s="10">
         <v>38</v>
@@ -18456,11 +18456,11 @@
       <c r="GV28" t="n" s="10">
         <v>12.2</v>
       </c>
-      <c r="GW28" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX28" t="s" s="10">
-        <v>38</v>
+      <c r="GW28" t="n" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="GX28" t="n" s="10">
+        <v>11.5</v>
       </c>
       <c r="GY28" t="s" s="10">
         <v>38</v>
@@ -19084,11 +19084,11 @@
       <c r="GV30" t="n" s="10">
         <v>6.7</v>
       </c>
-      <c r="GW30" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX30" t="s" s="10">
-        <v>38</v>
+      <c r="GW30" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="GX30" t="n" s="10">
+        <v>6.3</v>
       </c>
       <c r="GY30" t="s" s="10">
         <v>38</v>
@@ -19709,11 +19709,11 @@
       <c r="GV32" t="n" s="10">
         <v>7.1</v>
       </c>
-      <c r="GW32" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX32" t="s" s="10">
-        <v>38</v>
+      <c r="GW32" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="GX32" t="n" s="10">
+        <v>6.7</v>
       </c>
       <c r="GY32" t="s" s="10">
         <v>38</v>
@@ -20329,11 +20329,11 @@
       <c r="GV33" t="n" s="10">
         <v>6.2</v>
       </c>
-      <c r="GW33" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX33" t="s" s="10">
-        <v>38</v>
+      <c r="GW33" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="GX33" t="n" s="10">
+        <v>5.8</v>
       </c>
       <c r="GY33" t="s" s="10">
         <v>38</v>
@@ -20949,11 +20949,11 @@
       <c r="GV34" t="n" s="10">
         <v>6.1</v>
       </c>
-      <c r="GW34" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX34" t="s" s="10">
-        <v>38</v>
+      <c r="GW34" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="GX34" t="n" s="10">
+        <v>5.6</v>
       </c>
       <c r="GY34" t="s" s="10">
         <v>38</v>
@@ -21569,11 +21569,11 @@
       <c r="GV35" t="n" s="10">
         <v>7.2</v>
       </c>
-      <c r="GW35" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX35" t="s" s="10">
-        <v>38</v>
+      <c r="GW35" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="GX35" t="n" s="10">
+        <v>6.3</v>
       </c>
       <c r="GY35" t="s" s="10">
         <v>38</v>
@@ -22189,11 +22189,11 @@
       <c r="GV36" t="n" s="10">
         <v>7.0</v>
       </c>
-      <c r="GW36" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX36" t="s" s="10">
-        <v>38</v>
+      <c r="GW36" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="GX36" t="n" s="10">
+        <v>6.8</v>
       </c>
       <c r="GY36" t="s" s="10">
         <v>38</v>
@@ -22810,10 +22810,10 @@
         <v>43</v>
       </c>
       <c r="GW37" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GX37" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GY37" t="s" s="10">
         <v>38</v>
@@ -23430,10 +23430,10 @@
         <v>43</v>
       </c>
       <c r="GW38" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GX38" t="s" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="GY38" t="s" s="10">
         <v>38</v>
@@ -24049,11 +24049,11 @@
       <c r="GV39" t="n" s="10">
         <v>16.9</v>
       </c>
-      <c r="GW39" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="GX39" t="s" s="10">
-        <v>38</v>
+      <c r="GW39" t="n" s="10">
+        <v>16.4</v>
+      </c>
+      <c r="GX39" t="n" s="10">
+        <v>15.8</v>
       </c>
       <c r="GY39" t="s" s="10">
         <v>38</v>
@@ -24162,7 +24162,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:37:41&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:35:54&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>